--- a/matlab_code/tests/patternFxns/testFiles/toy_model1_test.xlsx
+++ b/matlab_code/tests/patternFxns/testFiles/toy_model1_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,324 +32,324 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="106">
-  <si>
-    <t>General Reaction and Sampling Platform (GRASP)</t>
-  </si>
-  <si>
-    <t>Unnamed: 1</t>
-  </si>
-  <si>
-    <t>Model name</t>
-  </si>
-  <si>
-    <t>toy_model1</t>
-  </si>
-  <si>
-    <t>Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>ORACLE</t>
-  </si>
-  <si>
-    <t>NLP solver (NLOPT, OPTI, FMINCON (default))</t>
-  </si>
-  <si>
-    <t>FMINCON</t>
-  </si>
-  <si>
-    <t>Number of exp. conditions (excluding reference state)</t>
-  </si>
-  <si>
-    <t>Number of model structures</t>
-  </si>
-  <si>
-    <t>Number of particles</t>
-  </si>
-  <si>
-    <t>Parallel mode (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Number of cores (ignored if Parallel mode disabled)</t>
-  </si>
-  <si>
-    <t>Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>Compute robust fluxes (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t>Final tolerance (in the case of ORACLE, set to 1)</t>
-  </si>
-  <si>
-    <t>rxn ID</t>
-  </si>
-  <si>
-    <t>m1</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>m3</t>
-  </si>
-  <si>
-    <t>m4</t>
-  </si>
-  <si>
-    <t>m5</t>
-  </si>
-  <si>
-    <t>m6</t>
-  </si>
-  <si>
-    <t>m7</t>
-  </si>
-  <si>
-    <t>m8</t>
-  </si>
-  <si>
-    <t>m9</t>
-  </si>
-  <si>
-    <t>m10</t>
-  </si>
-  <si>
-    <t>m11</t>
-  </si>
-  <si>
-    <t>m12</t>
-  </si>
-  <si>
-    <t>m13</t>
-  </si>
-  <si>
-    <t>m14</t>
-  </si>
-  <si>
-    <t>m15</t>
-  </si>
-  <si>
-    <t>m16</t>
-  </si>
-  <si>
-    <t>m17</t>
-  </si>
-  <si>
-    <t>m18</t>
-  </si>
-  <si>
-    <t>m19</t>
-  </si>
-  <si>
-    <t>m20</t>
-  </si>
-  <si>
-    <t>r1</t>
-  </si>
-  <si>
-    <t>r2</t>
-  </si>
-  <si>
-    <t>r3</t>
-  </si>
-  <si>
-    <t>r4</t>
-  </si>
-  <si>
-    <t>r5</t>
-  </si>
-  <si>
-    <t>r6</t>
-  </si>
-  <si>
-    <t>r7</t>
-  </si>
-  <si>
-    <t>r8</t>
-  </si>
-  <si>
-    <t>r9</t>
-  </si>
-  <si>
-    <t>r10</t>
-  </si>
-  <si>
-    <t>r11</t>
-  </si>
-  <si>
-    <t>r12</t>
-  </si>
-  <si>
-    <t>r13</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Metabolite name</t>
-  </si>
-  <si>
-    <t>balanced?</t>
-  </si>
-  <si>
-    <t>active?</t>
-  </si>
-  <si>
-    <t>fixed?</t>
-  </si>
-  <si>
-    <t>measured?</t>
-  </si>
-  <si>
-    <t>reaction name</t>
-  </si>
-  <si>
-    <t>transportRxn?</t>
-  </si>
-  <si>
-    <t>modelled?</t>
-  </si>
-  <si>
-    <t>isoenzymes</t>
-  </si>
-  <si>
-    <t>met</t>
-  </si>
-  <si>
-    <t>rxn</t>
-  </si>
-  <si>
-    <t>∆Gr'_min (kJ/mol)</t>
-  </si>
-  <si>
-    <t>∆Gr'_max (kJ/mol)</t>
-  </si>
-  <si>
-    <t>min (M)</t>
-  </si>
-  <si>
-    <t>max (M)</t>
-  </si>
-  <si>
-    <t>Fluxes (umol/gCDW/h)</t>
-  </si>
-  <si>
-    <t>vref_mean</t>
-  </si>
-  <si>
-    <t>vref_std</t>
-  </si>
-  <si>
-    <t>enzyme/rxn</t>
-  </si>
-  <si>
-    <t>MBo10_LB2</t>
-  </si>
-  <si>
-    <t>MBo10_meas2</t>
-  </si>
-  <si>
-    <t>MBo10_UB2</t>
-  </si>
-  <si>
-    <t>MBo10_LB2 (M)</t>
-  </si>
-  <si>
-    <t>MBo10_UB2 (M)</t>
-  </si>
-  <si>
-    <t>reaction ID</t>
-  </si>
-  <si>
-    <t>kinetic mechanism</t>
-  </si>
-  <si>
-    <t>substrate order</t>
-  </si>
-  <si>
-    <t>product order</t>
-  </si>
-  <si>
-    <t>promiscuous</t>
-  </si>
-  <si>
-    <t>inhibitors</t>
-  </si>
-  <si>
-    <t>activators</t>
-  </si>
-  <si>
-    <t>negative effector</t>
-  </si>
-  <si>
-    <t>positive effector</t>
-  </si>
-  <si>
-    <t>allosteric</t>
-  </si>
-  <si>
-    <t>subunits</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>substrateInhibOrderedBiBi</t>
-  </si>
-  <si>
-    <t>m3 m6</t>
-  </si>
-  <si>
-    <t>m5 m14</t>
-  </si>
-  <si>
-    <t>UniUniPromiscuous</t>
-  </si>
-  <si>
-    <t>m5 m6</t>
-  </si>
-  <si>
-    <t>m7 m10</t>
-  </si>
-  <si>
-    <t>r2 r5</t>
-  </si>
-  <si>
-    <t>OrdPromiscCompInhibIndep</t>
-  </si>
-  <si>
-    <t>m1 m7 m1 m10</t>
-  </si>
-  <si>
-    <t>m8 m11 m12 m12</t>
-  </si>
-  <si>
-    <t>r3 r6</t>
-  </si>
-  <si>
-    <t>randomBiBi2</t>
-  </si>
-  <si>
-    <t>m2 m8 </t>
-  </si>
-  <si>
-    <t>m9 m13</t>
-  </si>
-  <si>
-    <t>massAction</t>
-  </si>
-  <si>
-    <t>diffusion</t>
-  </si>
-  <si>
-    <t>fixedExchange</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="106">
+  <si>
+    <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toy_model1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORACLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMINCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of model structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolite name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balanced?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measured?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transportRxn?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelled?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isoenzymes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_min (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_max (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxes (umol/gCDW/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enzyme/rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_meas2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2 (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2 (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinetic mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrate order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allosteric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrateInhibOrderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniUniPromiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7 m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2 r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OrdPromiscCompInhibIndep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1 m7 m1 m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8 m11 m12 m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3 r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomBiBi2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2 m8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9 m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">massAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diffusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixedExchange</t>
   </si>
 </sst>
 </file>
@@ -357,7 +357,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -484,13 +484,13 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="D:F B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -602,7 +602,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -617,13 +617,13 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="D:F"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -708,7 +708,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -723,13 +723,13 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D:F A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -931,7 +931,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -946,13 +946,13 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D:F A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1252,7 +1252,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1267,19 +1267,19 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="1" sqref="D:F C17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.8137651821862"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.0242914979757"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.9554655870445"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.4210526315789"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1336,6 +1336,9 @@
       <c r="F2" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="G2" s="0" t="s">
+        <v>33</v>
+      </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
       </c>
@@ -1562,7 +1565,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1577,13 +1580,13 @@
   </sheetPr>
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D:F A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2499,7 +2502,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2514,13 +2517,13 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D:F"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2946,7 +2949,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2961,13 +2964,13 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D:F B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3172,7 +3175,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3187,13 +3190,13 @@
   </sheetPr>
   <dimension ref="A2:A15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="D:F A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3269,7 +3272,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3284,13 +3287,13 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="D:F A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3401,7 +3404,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3416,13 +3419,13 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="D:F A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3533,7 +3536,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3548,13 +3551,13 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D:F A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3714,7 +3717,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3729,13 +3732,13 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="D:F H13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3972,7 +3975,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/matlab_code/tests/patternFxns/testFiles/toy_model1_test.xlsx
+++ b/matlab_code/tests/patternFxns/testFiles/toy_model1_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="108">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t xml:space="preserve">FMINCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP solver (linprog or gurobi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gurobi</t>
   </si>
   <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
@@ -440,13 +446,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -482,10 +492,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -525,62 +535,62 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0</v>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -588,14 +598,22 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -618,7 +636,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="A5:B5 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -628,20 +646,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -652,7 +670,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -663,7 +681,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -674,7 +692,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -685,7 +703,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -696,7 +714,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
@@ -724,7 +742,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -734,21 +752,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -762,7 +780,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -776,7 +794,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -790,7 +808,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -804,7 +822,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -818,7 +836,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -832,7 +850,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -846,7 +864,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -860,7 +878,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -874,7 +892,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -888,7 +906,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -902,7 +920,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -916,7 +934,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -947,7 +965,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -957,21 +975,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -985,7 +1003,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -999,7 +1017,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1013,7 +1031,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1027,7 +1045,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1041,7 +1059,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -1055,7 +1073,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -1069,7 +1087,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -1083,7 +1101,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -1097,7 +1115,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -1111,7 +1129,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1125,7 +1143,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1139,7 +1157,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1153,7 +1171,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1167,7 +1185,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1181,7 +1199,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1195,7 +1213,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1209,7 +1227,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1223,7 +1241,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1237,7 +1255,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1267,77 +1285,77 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="1" sqref="A5:B5 G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1348,19 +1366,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1371,22 +1389,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1397,16 +1415,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1417,19 +1435,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1440,22 +1458,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1466,10 +1484,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1480,10 +1498,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1494,10 +1512,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1508,10 +1526,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1522,10 +1540,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1536,10 +1554,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1550,10 +1568,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1581,7 +1599,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="1" sqref="A5:B5 A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1591,72 +1609,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1721,7 +1739,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1786,7 +1804,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1851,7 +1869,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1916,7 +1934,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1981,7 +1999,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2046,7 +2064,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2111,7 +2129,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2176,7 +2194,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2241,7 +2259,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2306,7 +2324,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2371,7 +2389,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2436,7 +2454,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2518,7 +2536,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="A5:B5 D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2528,30 +2546,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2568,10 +2586,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2588,10 +2606,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2608,10 +2626,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2628,10 +2646,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2648,10 +2666,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2668,10 +2686,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2688,10 +2706,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2708,10 +2726,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2728,10 +2746,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2748,10 +2766,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2768,10 +2786,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2788,10 +2806,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2808,10 +2826,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2828,10 +2846,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2848,10 +2866,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2868,10 +2886,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2888,10 +2906,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2908,10 +2926,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2928,10 +2946,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2965,7 +2983,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A5:B5 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2975,27 +2993,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -3006,10 +3024,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -3020,10 +3038,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3034,10 +3052,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3048,10 +3066,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -3062,10 +3080,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -3076,10 +3094,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -3090,10 +3108,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -3104,10 +3122,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -3118,10 +3136,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -3132,10 +3150,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -3146,10 +3164,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3160,10 +3178,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -3191,7 +3209,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3201,72 +3219,72 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -3288,7 +3306,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3298,107 +3316,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3420,7 +3438,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3430,107 +3448,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3552,7 +3570,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3562,18 +3580,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3584,7 +3602,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3595,7 +3613,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3606,7 +3624,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3617,7 +3635,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3628,7 +3646,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3639,7 +3657,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3650,7 +3668,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3661,7 +3679,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3672,7 +3690,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3683,7 +3701,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3694,7 +3712,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3705,7 +3723,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3733,7 +3751,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A5:B5 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3743,18 +3761,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3765,7 +3783,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3776,7 +3794,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3787,7 +3805,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3798,7 +3816,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3809,7 +3827,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3820,7 +3838,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3831,7 +3849,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3842,7 +3860,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3853,7 +3871,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3864,7 +3882,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3875,7 +3893,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3886,7 +3904,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3897,7 +3915,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3908,7 +3926,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3919,7 +3937,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3930,7 +3948,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3941,7 +3959,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3952,7 +3970,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3963,7 +3981,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>

--- a/matlab_code/tests/patternFxns/testFiles/toy_model1_test.xlsx
+++ b/matlab_code/tests/patternFxns/testFiles/toy_model1_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="102">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -46,13 +46,13 @@
     <t xml:space="preserve">toy_model1</t>
   </si>
   <si>
-    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORACLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+    <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
   </si>
   <si>
     <t xml:space="preserve">FMINCON</t>
@@ -79,18 +79,9 @@
     <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
   </si>
   <si>
@@ -205,12 +196,6 @@
     <t xml:space="preserve">balanced?</t>
   </si>
   <si>
-    <t xml:space="preserve">active?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixed?</t>
-  </si>
-  <si>
     <t xml:space="preserve">measured?</t>
   </si>
   <si>
@@ -218,9 +203,6 @@
   </si>
   <si>
     <t xml:space="preserve">transportRxn?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelled?</t>
   </si>
   <si>
     <t xml:space="preserve">isoenzymes</t>
@@ -492,10 +474,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -511,24 +493,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -587,6 +569,9 @@
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -596,27 +581,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -636,7 +603,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="A5:B5 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -646,20 +613,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -670,7 +637,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -681,7 +648,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -692,7 +659,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -703,7 +670,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -714,7 +681,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
@@ -742,7 +709,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -752,21 +719,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -780,7 +747,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -794,7 +761,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -808,7 +775,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -822,7 +789,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -836,7 +803,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -850,7 +817,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -864,7 +831,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -878,7 +845,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -892,7 +859,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -906,7 +873,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -920,7 +887,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -934,7 +901,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -965,7 +932,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -975,21 +942,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -1003,7 +970,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1017,7 +984,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1031,7 +998,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1045,7 +1012,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1059,7 +1026,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -1073,7 +1040,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -1087,7 +1054,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -1101,7 +1068,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -1115,7 +1082,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -1129,7 +1096,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1143,7 +1110,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1157,7 +1124,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1171,7 +1138,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1185,7 +1152,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1199,7 +1166,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1213,7 +1180,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1227,7 +1194,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1241,7 +1208,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1255,7 +1222,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1286,7 +1253,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="1" sqref="A5:B5 G3"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1302,60 +1269,60 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1366,19 +1333,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1389,22 +1356,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1415,16 +1382,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1435,19 +1402,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1458,22 +1425,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1484,10 +1451,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1498,10 +1465,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1512,10 +1479,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1526,10 +1493,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1540,10 +1507,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1554,10 +1521,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1568,10 +1535,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1599,7 +1566,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="1" sqref="A5:B5 A13"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1609,72 +1576,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1739,7 +1706,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1804,7 +1771,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1869,7 +1836,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1934,7 +1901,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1999,7 +1966,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2064,7 +2031,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2129,7 +2096,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2194,7 +2161,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2259,7 +2226,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2324,7 +2291,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2389,7 +2356,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2454,7 +2421,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2533,434 +2500,309 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="A5:B5 D17"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2980,214 +2822,173 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A5:B5 B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3209,7 +3010,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3219,72 +3020,72 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3306,7 +3107,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3316,107 +3117,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3438,7 +3239,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3448,107 +3249,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3570,7 +3371,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3580,18 +3381,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3602,7 +3403,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3613,7 +3414,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3624,7 +3425,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3635,7 +3436,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3646,7 +3447,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3657,7 +3458,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3668,7 +3469,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3679,7 +3480,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3690,7 +3491,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3701,7 +3502,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3712,7 +3513,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3723,7 +3524,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3751,7 +3552,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A5:B5 H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3761,18 +3562,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3783,7 +3584,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3794,7 +3595,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3805,7 +3606,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3816,7 +3617,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3827,7 +3628,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3838,7 +3639,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3849,7 +3650,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3860,7 +3661,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3871,7 +3672,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3882,7 +3683,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3893,7 +3694,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3904,7 +3705,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3915,7 +3716,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3926,7 +3727,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3937,7 +3738,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3948,7 +3749,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3959,7 +3760,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3970,7 +3771,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3981,7 +3782,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>

--- a/matlab_code/tests/patternFxns/testFiles/toy_model1_test.xlsx
+++ b/matlab_code/tests/patternFxns/testFiles/toy_model1_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="101">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t xml:space="preserve">balanced?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measured?</t>
   </si>
   <si>
     <t xml:space="preserve">reaction name</t>
@@ -441,12 +438,12 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -613,13 +610,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -719,16 +716,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -942,16 +939,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1269,40 +1266,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1310,13 +1307,13 @@
         <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>86</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>87</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>23</v>
@@ -1336,16 +1333,16 @@
         <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>90</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>91</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1359,16 +1356,16 @@
         <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>95</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>26</v>
@@ -1385,13 +1382,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1405,16 +1402,16 @@
         <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>90</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>91</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1428,16 +1425,16 @@
         <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>95</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>26</v>
@@ -1454,7 +1451,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1468,7 +1465,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1482,7 +1479,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1496,7 +1493,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1510,7 +1507,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1524,7 +1521,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1538,7 +1535,7 @@
         <v>50</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -2500,16 +2497,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2522,21 +2519,15 @@
       <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2544,13 +2535,10 @@
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2558,13 +2546,10 @@
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2572,13 +2557,10 @@
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2586,111 +2568,87 @@
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2698,13 +2656,10 @@
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2712,13 +2667,10 @@
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2726,13 +2678,10 @@
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2740,13 +2689,10 @@
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2754,13 +2700,10 @@
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2768,13 +2711,10 @@
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2782,13 +2722,10 @@
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2796,13 +2733,10 @@
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2824,7 +2758,7 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -2839,20 +2773,20 @@
         <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -2863,7 +2797,7 @@
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -2874,7 +2808,7 @@
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -2885,7 +2819,7 @@
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -2896,7 +2830,7 @@
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -2907,7 +2841,7 @@
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -2918,7 +2852,7 @@
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -2929,7 +2863,7 @@
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -2940,7 +2874,7 @@
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -2951,7 +2885,7 @@
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -2962,7 +2896,7 @@
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -2973,7 +2907,7 @@
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -2984,7 +2918,7 @@
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -3117,7 +3051,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3249,7 +3183,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3381,13 +3315,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3562,13 +3496,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/matlab_code/tests/patternFxns/testFiles/toy_model1_test.xlsx
+++ b/matlab_code/tests/patternFxns/testFiles/toy_model1_test.xlsx
@@ -5,22 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="stoic" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="mets" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="rxns" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="splitRatios" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="poolConst" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="thermo_ineq_constraints" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermoRxns" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="thermoMets" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="measRates" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="protData" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="metsData" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="kinetics1" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="poolConst" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="thermo_ineq_constraints" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="thermoRxns" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="thermoMets" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="measRates" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="protData" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="metsData" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="kinetics1" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="101">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -597,112 +596,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>-22.0149320730417</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1.10350536706976</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.285369137837419</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>2.12397436954052E-007</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.0578197638950879</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>3.18755368558865E-009</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>-0.00439408376660814</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>3.33787220043099E-011</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>6.84865633256387</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>2.00430304742416E-005</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>-0.00242684925806694</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>6.60284204552005E-011</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -921,7 +814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1242,7 +1135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2499,7 +2392,7 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -2941,9 +2834,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A15"/>
+  <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2954,72 +2847,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3170,138 +3098,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A22"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -3478,7 +3274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3734,4 +3530,110 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>-22.0149320730417</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1.10350536706976</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.285369137837419</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2.12397436954052E-007</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.0578197638950879</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3.18755368558865E-009</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>-0.00439408376660814</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>3.33787220043099E-011</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>6.84865633256387</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2.00430304742416E-005</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>-0.00242684925806694</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>6.60284204552005E-011</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/matlab_code/tests/patternFxns/testFiles/toy_model1_test.xlsx
+++ b/matlab_code/tests/patternFxns/testFiles/toy_model1_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="104">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
@@ -343,7 +352,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -373,6 +382,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -424,7 +440,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -435,6 +451,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -472,8 +496,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -521,64 +545,78 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -599,7 +637,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -609,21 +647,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -637,7 +675,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -651,7 +689,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -665,7 +703,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -679,7 +717,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -693,7 +731,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -707,7 +745,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -721,7 +759,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -735,7 +773,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -749,7 +787,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -763,7 +801,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -777,7 +815,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -791,7 +829,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -822,7 +860,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -832,21 +870,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -860,7 +898,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -874,7 +912,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -888,7 +926,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -902,7 +940,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -916,7 +954,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -930,7 +968,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -944,7 +982,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -958,7 +996,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -972,7 +1010,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -986,7 +1024,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1000,7 +1038,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1014,7 +1052,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1028,7 +1066,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1042,7 +1080,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1056,7 +1094,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1070,7 +1108,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1084,7 +1122,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1098,7 +1136,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1112,7 +1150,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1143,7 +1181,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="1" sqref="A6:B7 G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1159,60 +1197,60 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1223,19 +1261,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1246,22 +1284,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1272,16 +1310,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1292,19 +1330,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1315,22 +1353,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1341,10 +1379,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1355,10 +1393,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1369,10 +1407,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1383,10 +1421,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1397,10 +1435,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1411,10 +1449,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1425,10 +1463,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1456,7 +1494,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="1" sqref="A6:B7 A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1466,72 +1504,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1596,7 +1634,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1661,7 +1699,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1726,7 +1764,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1791,7 +1829,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1856,7 +1894,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -1921,7 +1959,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1986,7 +2024,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2051,7 +2089,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2116,7 +2154,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2181,7 +2219,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2246,7 +2284,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2311,7 +2349,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2393,7 +2431,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2404,21 +2442,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2426,10 +2464,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2437,10 +2475,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2448,10 +2486,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2459,10 +2497,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2470,10 +2508,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2481,10 +2519,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2492,10 +2530,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2503,10 +2541,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2514,10 +2552,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2525,10 +2563,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2536,10 +2574,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2547,10 +2585,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2558,10 +2596,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2569,10 +2607,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2580,10 +2618,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2591,10 +2629,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2602,10 +2640,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2613,10 +2651,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2624,10 +2662,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2652,7 +2690,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2663,24 +2701,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2688,10 +2726,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2699,10 +2737,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2710,10 +2748,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2721,10 +2759,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -2732,10 +2770,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -2743,10 +2781,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -2754,10 +2792,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -2765,10 +2803,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -2776,10 +2814,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -2787,10 +2825,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -2798,10 +2836,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2809,10 +2847,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2836,8 +2874,8 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2847,107 +2885,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2969,7 +3007,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2979,107 +3017,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3101,7 +3139,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3111,18 +3149,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3133,7 +3171,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3144,7 +3182,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3155,7 +3193,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3166,7 +3204,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3177,7 +3215,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3188,7 +3226,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3199,7 +3237,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3210,7 +3248,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3221,7 +3259,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3232,7 +3270,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3243,7 +3281,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3254,7 +3292,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3282,7 +3320,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A6:B7 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3292,18 +3330,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3314,7 +3352,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3325,7 +3363,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3336,7 +3374,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3347,7 +3385,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3358,7 +3396,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3369,7 +3407,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3380,7 +3418,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3391,7 +3429,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3402,7 +3440,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3413,7 +3451,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3424,7 +3462,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3435,7 +3473,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3446,7 +3484,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3457,7 +3495,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3468,7 +3506,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3479,7 +3517,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3490,7 +3528,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3501,7 +3539,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3512,7 +3550,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>
@@ -3540,7 +3578,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="A6:B7 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3550,20 +3588,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -3574,7 +3612,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -3585,7 +3623,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -3596,7 +3634,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -3607,7 +3645,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -3618,7 +3656,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
